--- a/Personal/yangyunfeng/计划表z.xlsx
+++ b/Personal/yangyunfeng/计划表z.xlsx
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习python丶英语单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12：00-13：00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,19 +53,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上18：00-19：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回顾当天所学内容，对不懂的内容查百度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出去玩，打游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上18：00-19：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习python（每天学习书上的两个小节）丶英语单词（学习50-80个单词）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,13 +123,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -192,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -227,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -412,104 +412,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Personal/yangyunfeng/计划表z.xlsx
+++ b/Personal/yangyunfeng/计划表z.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,14 +10,163 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">xueyu:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>计划表要格式整齐统一，写的太乱了</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">xueyu:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>学习的内容要具体清晰，学</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>python</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>哪些内容，花多少时间，学单词要学哪些内容，完成多少个单词，都要写清楚</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>也就是每一天要做什么都要写出来</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">xueyu:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>总结的时间太短，建议加长</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
@@ -76,8 +225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +248,34 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,13 +300,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -192,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -227,7 +404,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -404,112 +581,113 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="33">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Personal/yangyunfeng/计划表z.xlsx
+++ b/Personal/yangyunfeng/计划表z.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>学习计划表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回顾当天所学内容，对不懂的内容查百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出去玩，打游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +66,22 @@
   </si>
   <si>
     <t>学习python（每天学习书上的两个小节）丶英语单词（学习50-80个单词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">回顾当天所学内容，对不懂的内容查百度 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python完成情况：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语完成情况：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个月目标：将python一二两章内容学习完毕，尽量多看教学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +112,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,10 +138,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,9 +155,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="警告文本" xfId="1" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,7 +482,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -485,7 +512,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -500,7 +527,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -511,11 +538,11 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -524,8 +551,27 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>

--- a/Personal/yangyunfeng/计划表z.xlsx
+++ b/Personal/yangyunfeng/计划表z.xlsx
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回顾当天所学内容，对不懂的内容查百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出去玩，打游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +66,10 @@
   </si>
   <si>
     <t>学习python（每天学习书上的两个小节）丶英语单词（学习50-80个单词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">回顾当天所学内容，对不懂的内容查百度 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,13 +123,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,117 +415,123 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -533,12 +539,6 @@
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
